--- a/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo afectivo bajo</t>
+          <t>Apoyo afectivo bajo (tasa de respuesta: 98,35%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo afectivo bajo</t>
+          <t>Apoyo afectivo bajo (tasa de respuesta: 98,35%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>70,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>74,84%</t>
+          <t>77,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>73,25%</t>
+          <t>74,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>66,54; 76,03</t>
+          <t>65,58; 75,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,05; 58,01</t>
+          <t>47,27; 57,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>70,0; 78,42</t>
+          <t>73,05; 81,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>41,69; 51,4</t>
+          <t>41,64; 51,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,15; 76,14</t>
+          <t>70,77; 77,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,96; 53,38</t>
+          <t>45,98; 53,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>72,01%</t>
+          <t>73,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>69,86%</t>
+          <t>68,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>70,76%</t>
+          <t>70,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,02; 77,99</t>
+          <t>66,0; 79,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,18; 64,01</t>
+          <t>52,64; 64,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64,48; 74,55</t>
+          <t>62,16; 74,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,36; 61,32</t>
+          <t>50,53; 60,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,72; 74,46</t>
+          <t>66,12; 74,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,16; 61,15</t>
+          <t>53,25; 61,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>70,92%</t>
+          <t>70,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73,98%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,26; 74,56</t>
+          <t>64,68; 74,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,56; 65,62</t>
+          <t>9,54; 65,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66,74; 80,02</t>
+          <t>67,44; 81,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,69; 64,48</t>
+          <t>47,52; 64,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>68,16; 75,51</t>
+          <t>67,35; 75,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,34; 63,04</t>
+          <t>11,61; 63,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>66,99%</t>
+          <t>66,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>70,35%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,39; 71,52</t>
+          <t>60,39; 70,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,34; 66,92</t>
+          <t>57,65; 67,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>69,28; 77,34</t>
+          <t>68,77; 77,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>58,02; 88,63</t>
+          <t>57,93; 88,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,13; 73,15</t>
+          <t>66,42; 73,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,97; 82,05</t>
+          <t>59,88; 80,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>72,99%</t>
+          <t>75,51%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>80,39%</t>
+          <t>82,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>77,91%</t>
+          <t>79,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,99; 78,74</t>
+          <t>68,09; 81,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,43; 67,48</t>
+          <t>51,56; 67,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,05; 84,21</t>
+          <t>77,08; 85,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,05; 67,63</t>
+          <t>31,0; 67,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>73,82; 81,36</t>
+          <t>75,73; 83,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,65; 65,21</t>
+          <t>38,91; 65,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>60,99%</t>
+          <t>63,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>67,33%</t>
+          <t>69,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>67,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>50,66; 70,2</t>
+          <t>51,84; 74,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,45; 50,86</t>
+          <t>25,47; 50,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,56; 72,54</t>
+          <t>63,14; 74,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>57,45; 66,64</t>
+          <t>57,83; 66,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>61,25; 70,43</t>
+          <t>61,64; 72,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>51,36; 60,55</t>
+          <t>50,97; 60,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>69,96%</t>
+          <t>69,79%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>73,52%</t>
+          <t>74,32%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>72,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>67,53; 71,99</t>
+          <t>67,05; 72,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,13; 58,54</t>
+          <t>32,61; 58,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>71,55; 75,44</t>
+          <t>72,31; 76,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,12; 71,84</t>
+          <t>55,14; 70,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>70,45; 73,23</t>
+          <t>70,63; 73,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>47,12; 62,34</t>
+          <t>45,4; 61,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55509</t>
+          <t>123584</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59441</t>
+          <t>146735</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>114950</t>
+          <t>270319</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>51577; 58937</t>
+          <t>114666; 132513</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>171117; 210968</t>
+          <t>171904; 209635</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55596; 62285</t>
+          <t>138615; 154805</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>124027; 152941</t>
+          <t>123902; 152353</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>110099; 119501</t>
+          <t>258027; 281996</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>303926; 352958</t>
+          <t>304030; 352424</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32543</t>
+          <t>76085</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>43767</t>
+          <t>82881</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>76310</t>
+          <t>158966</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29834; 35244</t>
+          <t>68577; 82340</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>168234; 206362</t>
+          <t>169733; 208028</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40399; 46711</t>
+          <t>75391; 89904</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>129133; 157228</t>
+          <t>129577; 155712</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>71953; 80298</t>
+          <t>148891; 168689</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>307710; 353959</t>
+          <t>308216; 356424</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58532</t>
+          <t>106302</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24944</t>
+          <t>40540</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83476</t>
+          <t>146842</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>53859; 61539</t>
+          <t>98127; 113044</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45359; 311335</t>
+          <t>45279; 311183</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22503; 26981</t>
+          <t>36673; 44249</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>45695; 61784</t>
+          <t>45535; 61607</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>79239; 87782</t>
+          <t>138798; 155385</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>70371; 359519</t>
+          <t>66198; 359298</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>57771</t>
+          <t>117929</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>69266</t>
+          <t>137363</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>127037</t>
+          <t>255293</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>53805; 61684</t>
+          <t>107889; 126667</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>304579; 355473</t>
+          <t>306249; 358013</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>65359; 72966</t>
+          <t>128678; 145590</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>367349; 561203</t>
+          <t>366819; 561941</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>121234; 132102</t>
+          <t>242931; 267098</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>698325; 955442</t>
+          <t>697217; 940831</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26610</t>
+          <t>55144</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>58217</t>
+          <t>101556</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>84827</t>
+          <t>156700</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>24055; 28705</t>
+          <t>49721; 59517</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>107439; 140964</t>
+          <t>107704; 141762</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>55073; 60985</t>
+          <t>95412; 106379</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>135597; 286112</t>
+          <t>131130; 285402</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>80366; 88579</t>
+          <t>149037; 163688</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>231604; 412101</t>
+          <t>245875; 412147</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>10565</t>
+          <t>30808</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>40954</t>
+          <t>85955</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>51520</t>
+          <t>116763</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8776; 12160</t>
+          <t>25111; 36039</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45326; 83971</t>
+          <t>42044; 83075</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>37450; 44127</t>
+          <t>78500; 92726</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>280006; 324799</t>
+          <t>281862; 325331</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>47871; 55044</t>
+          <t>106492; 125748</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>335140; 395126</t>
+          <t>332623; 396991</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>241530</t>
+          <t>509853</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>296589</t>
+          <t>595030</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>538120</t>
+          <t>1104883</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>233139; 248553</t>
+          <t>489847; 528306</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>705150; 1209244</t>
+          <t>673664; 1207320</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>288622; 304308</t>
+          <t>578958; 611630</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1209086; 1575658</t>
+          <t>1209541; 1555297</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>527441; 548260</t>
+          <t>1081521; 1130443</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2007102; 2655188</t>
+          <t>1933589; 2612449</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>53,1%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>45,27%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>70,68%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>52,55%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>45,27%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>47,08%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>41,28%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>77,33%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>46,42%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>41,28%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>50,36%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>43,33%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>74,14%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>49,79%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>43,33%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>47,97; 58,24</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40,73; 50,09</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>65,58; 75,78</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>47,27; 57,64</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>40,73; 50,09</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>42,31; 51,69</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36,44; 46,27</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>73,05; 81,58</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>41,64; 51,21</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>36,44; 46,27</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>46,75; 53,93</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>40,24; 46,77</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>70,77; 77,34</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>45,98; 53,3</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>40,24; 46,77</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>59,88%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>50,59%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>73,23%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>58,24%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>50,59%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>55,76%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>46,61%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>68,34%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>56,04%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>46,61%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>58,02%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>48,44%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>70,59%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>57,26%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>48,44%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>54,5; 65,97</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44,76; 56,53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>66,0; 79,25</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>52,64; 64,52</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>44,76; 56,53</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>50,45; 60,37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>41,7; 52,26</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>62,16; 74,13</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>50,53; 60,73</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>41,7; 52,26</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>54,27; 62,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>44,12; 52,21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>66,12; 74,91</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>53,25; 61,58</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>44,12; 52,21</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>62,77%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48,25%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>70,07%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>30,72%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>48,25%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>55,72%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>39,36%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>74,56%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>56,54%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>39,36%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>60,68%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>45,48%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>71,25%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>35,06%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>45,48%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>55,92; 68,57</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>42,53; 53,93</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>64,68; 74,51</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>9,54; 65,58</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>42,53; 53,93</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>46,89; 64,26</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>31,25; 48,79</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>67,44; 81,38</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>47,52; 64,3</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>31,25; 48,79</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>55,52; 66,26</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>40,49; 50,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>67,35; 75,4</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>11,61; 63,0</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>40,49; 50,26</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>62,44%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47,61%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>66,01%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>62,43%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>47,61%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>60,5%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>45,78%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>73,42%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>72,54%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>45,78%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>61,58%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>46,68%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>69,8%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>67,93%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>46,68%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>58,07; 67,41</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>43,38; 52,18</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>60,39; 70,9</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>57,65; 67,4</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>43,38; 52,18</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>56,35; 64,19</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>41,28; 50,71</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>68,77; 77,81</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>57,93; 88,75</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>41,28; 50,71</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>58,59; 64,76</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43,54; 50,16</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>66,42; 73,03</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>59,88; 80,8</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>43,54; 50,16</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>63,33%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>54,7%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>75,51%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>60,61%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>54,7%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>66,94%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>57,52%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>82,04%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>55,23%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>57,52%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>65,56%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56,12%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>79,62%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>57,01%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>56,12%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>55,65; 69,77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>47,98; 61,65</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>68,09; 81,5</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>51,56; 67,86</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>47,98; 61,65</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>62,34; 70,68</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>51,18; 64,76</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>77,08; 85,94</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>31,0; 67,47</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>51,18; 64,76</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>62,12; 69,34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>51,44; 61,04</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>75,73; 83,17</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>38,91; 65,22</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>51,44; 61,04</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>42,57%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>61,96%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>63,6%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>38,13%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>61,96%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>62,41%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>81,68%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>69,13%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>62,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>81,68%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>57,73%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>72,61%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>67,58%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>56,2%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>72,61%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>29,63; 53,16</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32,2; 84,8</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>51,84; 74,4</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>25,47; 50,32</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>32,2; 84,8</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>57,98; 66,34</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>49,07; 95,57</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>63,14; 74,58</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>57,83; 66,75</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>49,07; 95,57</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>53,08; 62,3</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>53,92; 86,27</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>61,64; 72,78</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>50,97; 60,84</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>53,92; 86,27</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>58,69%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>48,68%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>69,79%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>50,63%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>48,68%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>59,29%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>46,36%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>74,32%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>60,76%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>46,36%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>59,0%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>47,55%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>72,16%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>55,85%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>47,55%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>55,92; 61,12</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>46,3; 51,09</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>67,05; 72,31</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>32,61; 58,44</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>46,3; 51,09</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>57,3; 61,14</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>43,92; 48,93</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>72,31; 76,39</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>55,14; 70,91</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>43,92; 48,93</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>57,5; 60,69</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45,92; 49,17</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>70,63; 73,83</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>45,4; 61,34</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>45,92; 49,17</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>327</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>372</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>699</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>430</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>401</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>208342</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>131176</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>123584</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>191125</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>131176</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>153584</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>112991</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>146735</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>138121</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>112991</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>361925</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>244167</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>270319</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>329246</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>244167</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>188211; 228529</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>118032; 145148</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>114666; 132513</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>171904; 209635</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>118032; 145148</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>138020; 168628</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>99736; 126632</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>138615; 154805</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>123902; 152353</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>99736; 126632</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>335937; 387554</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>226767; 263539</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>258027; 281996</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>304030; 352424</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>226767; 263539</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>265</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>462</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>432</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>334</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>205279</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>97352</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>76085</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>187761</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>97352</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>157944</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>105658</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>82881</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>143707</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>105658</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>363223</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>203010</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>158966</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>331468</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>203010</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>186834; 226147</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>86130; 108787</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>68577; 82340</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>169733; 208028</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>86130; 108787</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>142902; 170986</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>94522; 118451</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>75391; 89904</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>129577; 155712</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>94522; 118451</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>339749; 389630</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>184916; 218794</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>148891; 168689</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>308216; 356424</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>184916; 218794</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>342</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>145</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>487</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>222</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>162994</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>85090</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>106302</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>145776</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>85090</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>61068</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>31490</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>40540</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>54175</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>31490</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>224062</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>116580</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>146842</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>199951</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>116580</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>145215; 178076</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>74990; 95100</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>98127; 113044</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>45279; 311183</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>74990; 95100</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>51392; 70427</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25002; 39033</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>36673; 44249</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>45535; 61607</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>25002; 39033</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>205010; 244686</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>103807; 128852</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>138798; 155385</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>66198; 359298</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>103807; 128852</t>
         </is>
       </c>
     </row>
@@ -2038,19 +2038,19 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>345</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>373</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
           <t>412</t>
@@ -2058,27 +2058,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>412</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>757</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>508</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>377807</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>142937</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>117929</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>331645</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>142937</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>294311</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>141224</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>137363</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>459309</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>141224</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>672118</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>284161</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>255293</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>790954</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>284161</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>351347; 407861</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>130253; 156684</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>107889; 126667</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>306249; 358013</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>130253; 156684</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>274122; 312283</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>127342; 156435</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>128678; 145590</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>366819; 561941</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>127342; 156435</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>639524; 706882</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>265054; 305336</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>242931; 267098</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>697217; 940831</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>265054; 305336</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>159</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>330</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>390</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>489</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>542</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>280</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>157967</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>80886</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>55144</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>126619</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>80886</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>270928</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>86967</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>101556</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>233648</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>86967</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>428895</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>167852</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>156700</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>360267</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>167852</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>138827; 174033</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>70948; 91160</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>49721; 59517</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>107704; 141762</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>70948; 91160</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>252333; 286077</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>77379; 97906</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>95412; 106379</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>131130; 285402</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>77379; 97906</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>406413; 453618</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>153835; 182554</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>149037; 163688</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>245875; 412147</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>153835; 182554</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>244</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>459</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>309</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>498</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>71373</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5792</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>30808</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>62954</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>5792</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>339608</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8955</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>85955</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>303791</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>8955</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>410981</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>14748</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>116763</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>366745</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>14748</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>49677; 89129</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3010; 7927</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>25111; 36039</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>42044; 83075</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>3010; 7927</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>315525; 361009</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5379; 10478</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>78500; 92726</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>281862; 325331</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>5379; 10478</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>377861; 443489</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10953; 17521</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>106492; 125748</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>332623; 396991</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>10953; 17521</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>1159</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>1435</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>1159</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>1790</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>1768</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>1790</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>826</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>2949</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1767</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>3203</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>2949</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>1767</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>1183762</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>543232</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>509853</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>1045880</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>543232</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>1277441</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>487285</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>595030</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>1332751</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>487285</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>2461203</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1030518</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>1104883</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>2378630</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>1030518</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>1127959; 1232743</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>516753; 570177</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>489847; 528306</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>673664; 1207320</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>516753; 570177</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>1234421; 1317327</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>461585; 514247</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>578958; 611630</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1209541; 1555297</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>461585; 514247</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>2398444; 2531576</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>995059; 1065495</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>1081521; 1130443</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1933589; 2612449</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>995059; 1065495</t>
         </is>
       </c>
     </row>
